--- a/Week 56/Shareena.xlsx
+++ b/Week 56/Shareena.xlsx
@@ -244,30 +244,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -306,7 +282,6 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -343,6 +318,31 @@
         <name val="Times New Roman"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -651,9 +651,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -707,7 +705,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -3281,35 +3278,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A15:C18" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="A15:C18" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A15:C18"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Customer" dataDxfId="13"/>
-    <tableColumn id="2" name="No of Times" dataDxfId="12"/>
-    <tableColumn id="3" name="Time" dataDxfId="11"/>
+    <tableColumn id="1" name="Customer" dataDxfId="11"/>
+    <tableColumn id="2" name="No of Times" dataDxfId="10"/>
+    <tableColumn id="3" name="Time" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A20:C23" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A20:C23" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A20:C23"/>
   <tableColumns count="3">
-    <tableColumn id="2" name="Category" dataDxfId="8"/>
-    <tableColumn id="3" name="No of Times" dataDxfId="7"/>
-    <tableColumn id="1" name="Time" dataDxfId="6"/>
+    <tableColumn id="2" name="Category" dataDxfId="6"/>
+    <tableColumn id="3" name="No of Times" dataDxfId="5"/>
+    <tableColumn id="1" name="Time" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A43:B45" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="A43:B45" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A43:B45"/>
   <tableColumns count="2">
-    <tableColumn id="2" name="Work" dataDxfId="3"/>
-    <tableColumn id="1" name="Time" dataDxfId="2"/>
+    <tableColumn id="2" name="Work" dataDxfId="1"/>
+    <tableColumn id="1" name="Time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3604,8 +3601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3757,7 +3754,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>34</v>
